--- a/countriesspending.csv.xlsx
+++ b/countriesspending.csv.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="57">
   <si>
     <t xml:space="preserve">Country </t>
   </si>
@@ -108,6 +108,93 @@
   </si>
   <si>
     <t>Oceania</t>
+  </si>
+  <si>
+    <t>Middle East</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>UAE</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Albania</t>
   </si>
 </sst>
 </file>
@@ -425,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC23"/>
+  <dimension ref="A1:AC50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2218,269 +2305,2672 @@
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
       </c>
       <c r="C21">
-        <v>-1</v>
+        <v>4832</v>
       </c>
       <c r="D21">
-        <v>-1</v>
+        <v>5173</v>
       </c>
       <c r="E21">
-        <v>-1</v>
+        <v>5500</v>
       </c>
       <c r="F21">
-        <v>-1</v>
+        <v>5472</v>
       </c>
       <c r="G21">
-        <v>-1</v>
+        <v>5315</v>
       </c>
       <c r="H21">
-        <v>-1</v>
+        <v>5407</v>
       </c>
       <c r="I21">
-        <v>-1</v>
+        <v>5406</v>
       </c>
       <c r="J21">
-        <v>-1</v>
+        <v>5176</v>
       </c>
       <c r="K21">
-        <v>-1</v>
+        <v>5176</v>
       </c>
       <c r="L21">
-        <v>-1</v>
+        <v>5227</v>
       </c>
       <c r="M21">
-        <v>-1</v>
+        <v>5238</v>
       </c>
       <c r="N21">
-        <v>-1</v>
+        <v>5603</v>
       </c>
       <c r="O21">
-        <v>-1</v>
+        <v>6026</v>
       </c>
       <c r="P21">
-        <v>-1</v>
+        <v>6439</v>
       </c>
       <c r="Q21">
-        <v>203</v>
+        <v>6704</v>
       </c>
       <c r="R21">
-        <v>183</v>
+        <v>6978</v>
       </c>
       <c r="S21">
-        <v>184</v>
+        <v>7093</v>
       </c>
       <c r="T21">
-        <v>284</v>
+        <v>7142</v>
       </c>
       <c r="U21">
-        <v>240</v>
+        <v>6734</v>
       </c>
       <c r="V21">
-        <v>274</v>
+        <v>6940</v>
       </c>
       <c r="W21">
-        <v>297</v>
+        <v>7197</v>
       </c>
       <c r="X21">
-        <v>296</v>
+        <v>7586</v>
       </c>
       <c r="Y21">
-        <v>220</v>
+        <v>8045</v>
       </c>
       <c r="Z21">
-        <v>203</v>
+        <v>8310</v>
       </c>
       <c r="AA21">
-        <v>247</v>
+        <v>8731</v>
       </c>
       <c r="AB21">
-        <v>200</v>
+        <v>9483</v>
       </c>
       <c r="AC21">
-        <v>187</v>
+        <v>9931</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
       </c>
       <c r="C22">
-        <v>18559</v>
+        <v>-1</v>
       </c>
       <c r="D22">
-        <v>17328</v>
+        <v>-1</v>
       </c>
       <c r="E22">
-        <v>16561</v>
+        <v>-1</v>
       </c>
       <c r="F22">
-        <v>18705</v>
+        <v>-1</v>
       </c>
       <c r="G22">
-        <v>18788</v>
+        <v>-1</v>
       </c>
       <c r="H22">
-        <v>1931</v>
+        <v>-1</v>
       </c>
       <c r="I22">
-        <v>19702</v>
+        <v>-1</v>
       </c>
       <c r="J22">
-        <v>21810</v>
+        <v>-1</v>
       </c>
       <c r="K22">
-        <v>22755</v>
+        <v>-1</v>
       </c>
       <c r="L22">
-        <v>26445</v>
+        <v>-1</v>
       </c>
       <c r="M22">
-        <v>27287</v>
+        <v>-1</v>
       </c>
       <c r="N22">
-        <v>28238</v>
+        <v>-1</v>
       </c>
       <c r="O22">
-        <v>28150</v>
+        <v>-1</v>
       </c>
       <c r="P22">
-        <v>28779</v>
+        <v>-1</v>
       </c>
       <c r="Q22">
-        <v>33430</v>
+        <v>203</v>
       </c>
       <c r="R22">
-        <v>35576</v>
+        <v>183</v>
       </c>
       <c r="S22">
-        <v>35747</v>
+        <v>184</v>
       </c>
       <c r="T22">
-        <v>36179</v>
+        <v>284</v>
       </c>
       <c r="U22">
-        <v>41036</v>
+        <v>240</v>
       </c>
       <c r="V22">
-        <v>48315</v>
+        <v>274</v>
       </c>
       <c r="W22">
-        <v>48508</v>
+        <v>297</v>
       </c>
       <c r="X22">
-        <v>48978</v>
+        <v>296</v>
       </c>
       <c r="Y22">
-        <v>48804</v>
+        <v>220</v>
       </c>
       <c r="Z22">
-        <v>48445</v>
+        <v>203</v>
       </c>
       <c r="AA22">
-        <v>50813</v>
+        <v>247</v>
       </c>
       <c r="AB22">
-        <v>51295</v>
+        <v>200</v>
       </c>
       <c r="AC22">
-        <v>55631</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23">
+        <v>18559</v>
+      </c>
+      <c r="D23">
+        <v>17328</v>
+      </c>
+      <c r="E23">
+        <v>16561</v>
+      </c>
+      <c r="F23">
+        <v>18705</v>
+      </c>
+      <c r="G23">
+        <v>18788</v>
+      </c>
+      <c r="H23">
+        <v>1931</v>
+      </c>
+      <c r="I23">
+        <v>19702</v>
+      </c>
+      <c r="J23">
+        <v>21810</v>
+      </c>
+      <c r="K23">
+        <v>22755</v>
+      </c>
+      <c r="L23">
+        <v>26445</v>
+      </c>
+      <c r="M23">
+        <v>27287</v>
+      </c>
+      <c r="N23">
+        <v>28238</v>
+      </c>
+      <c r="O23">
+        <v>28150</v>
+      </c>
+      <c r="P23">
+        <v>28779</v>
+      </c>
+      <c r="Q23">
+        <v>33430</v>
+      </c>
+      <c r="R23">
+        <v>35576</v>
+      </c>
+      <c r="S23">
+        <v>35747</v>
+      </c>
+      <c r="T23">
+        <v>36179</v>
+      </c>
+      <c r="U23">
+        <v>41036</v>
+      </c>
+      <c r="V23">
+        <v>48315</v>
+      </c>
+      <c r="W23">
+        <v>48508</v>
+      </c>
+      <c r="X23">
+        <v>48978</v>
+      </c>
+      <c r="Y23">
+        <v>48804</v>
+      </c>
+      <c r="Z23">
+        <v>48445</v>
+      </c>
+      <c r="AA23">
+        <v>50813</v>
+      </c>
+      <c r="AB23">
+        <v>51295</v>
+      </c>
+      <c r="AC23">
+        <v>55631</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>26</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>27</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>12094</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <v>12301</v>
       </c>
-      <c r="E23">
+      <c r="E24">
         <v>12660</v>
       </c>
-      <c r="F23">
+      <c r="F24">
         <v>13139</v>
       </c>
-      <c r="G23">
+      <c r="G24">
         <v>13286</v>
       </c>
-      <c r="H23">
+      <c r="H24">
         <v>12870</v>
       </c>
-      <c r="I23">
+      <c r="I24">
         <v>12712</v>
       </c>
-      <c r="J23">
+      <c r="J24">
         <v>12937</v>
       </c>
-      <c r="K23">
+      <c r="K24">
         <v>13571</v>
       </c>
-      <c r="L23">
+      <c r="L24">
         <v>14238</v>
       </c>
-      <c r="M23">
+      <c r="M24">
         <v>14197</v>
       </c>
-      <c r="N23">
+      <c r="N24">
         <v>14762</v>
       </c>
-      <c r="O23">
+      <c r="O24">
         <v>15394</v>
       </c>
-      <c r="P23">
+      <c r="P24">
         <v>155675</v>
       </c>
-      <c r="Q23">
+      <c r="Q24">
         <v>16321</v>
       </c>
-      <c r="R23">
+      <c r="R24">
         <v>16895</v>
       </c>
-      <c r="S23">
+      <c r="S24">
         <v>17800</v>
       </c>
-      <c r="T23">
+      <c r="T24">
         <v>18893</v>
       </c>
-      <c r="U23">
+      <c r="U24">
         <v>19582</v>
       </c>
-      <c r="V23">
+      <c r="V24">
         <v>21047</v>
       </c>
-      <c r="W23">
+      <c r="W24">
         <v>21306</v>
       </c>
-      <c r="X23">
+      <c r="X24">
         <v>21011</v>
       </c>
-      <c r="Y23">
+      <c r="Y24">
         <v>20275</v>
       </c>
-      <c r="Z23">
+      <c r="Z24">
         <v>20099</v>
       </c>
-      <c r="AA23">
+      <c r="AA24">
         <v>21814</v>
       </c>
-      <c r="AB23">
+      <c r="AB24">
         <v>24040</v>
       </c>
-      <c r="AC23">
+      <c r="AC24">
         <v>24371</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25">
+        <v>3731</v>
+      </c>
+      <c r="D25">
+        <v>3755</v>
+      </c>
+      <c r="E25">
+        <v>3680</v>
+      </c>
+      <c r="F25">
+        <v>3572</v>
+      </c>
+      <c r="G25">
+        <v>3746</v>
+      </c>
+      <c r="H25">
+        <v>3687</v>
+      </c>
+      <c r="I25">
+        <v>3733</v>
+      </c>
+      <c r="J25">
+        <v>3821</v>
+      </c>
+      <c r="K25">
+        <v>2847</v>
+      </c>
+      <c r="L25">
+        <v>2860</v>
+      </c>
+      <c r="M25">
+        <v>4126</v>
+      </c>
+      <c r="N25">
+        <v>4980</v>
+      </c>
+      <c r="O25">
+        <v>5622</v>
+      </c>
+      <c r="P25">
+        <v>5745</v>
+      </c>
+      <c r="Q25">
+        <v>5435</v>
+      </c>
+      <c r="R25">
+        <v>5425</v>
+      </c>
+      <c r="S25">
+        <v>5551</v>
+      </c>
+      <c r="T25">
+        <v>5590</v>
+      </c>
+      <c r="U25">
+        <v>5206</v>
+      </c>
+      <c r="V25">
+        <v>5053</v>
+      </c>
+      <c r="W25">
+        <v>5051</v>
+      </c>
+      <c r="X25">
+        <v>4906</v>
+      </c>
+      <c r="Y25">
+        <v>4773</v>
+      </c>
+      <c r="Z25">
+        <v>4734</v>
+      </c>
+      <c r="AA25">
+        <v>5164</v>
+      </c>
+      <c r="AB25">
+        <v>5475</v>
+      </c>
+      <c r="AC25">
+        <v>5357</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26">
+        <v>3774</v>
+      </c>
+      <c r="D26">
+        <v>3403</v>
+      </c>
+      <c r="E26">
+        <v>2953</v>
+      </c>
+      <c r="F26">
+        <v>3458</v>
+      </c>
+      <c r="G26">
+        <v>4268</v>
+      </c>
+      <c r="H26">
+        <v>4187</v>
+      </c>
+      <c r="I26">
+        <v>4617</v>
+      </c>
+      <c r="J26">
+        <v>5150</v>
+      </c>
+      <c r="K26">
+        <v>5154</v>
+      </c>
+      <c r="L26">
+        <v>5213</v>
+      </c>
+      <c r="M26">
+        <v>5739</v>
+      </c>
+      <c r="N26">
+        <v>6389</v>
+      </c>
+      <c r="O26">
+        <v>6877</v>
+      </c>
+      <c r="P26">
+        <v>8026</v>
+      </c>
+      <c r="Q26">
+        <v>10372</v>
+      </c>
+      <c r="R26">
+        <v>12334</v>
+      </c>
+      <c r="S26">
+        <v>14515</v>
+      </c>
+      <c r="T26">
+        <v>13362</v>
+      </c>
+      <c r="U26">
+        <v>12840</v>
+      </c>
+      <c r="V26">
+        <v>13441</v>
+      </c>
+      <c r="W26">
+        <v>13671</v>
+      </c>
+      <c r="X26">
+        <v>12353</v>
+      </c>
+      <c r="Y26">
+        <v>12851</v>
+      </c>
+      <c r="Z26">
+        <v>10151</v>
+      </c>
+      <c r="AA26">
+        <v>10067</v>
+      </c>
+      <c r="AB26">
+        <v>10589</v>
+      </c>
+      <c r="AC26">
+        <v>12383</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27">
+        <v>-1</v>
+      </c>
+      <c r="D27">
+        <v>-1</v>
+      </c>
+      <c r="E27">
+        <v>-1</v>
+      </c>
+      <c r="F27">
+        <v>-1</v>
+      </c>
+      <c r="G27">
+        <v>-1</v>
+      </c>
+      <c r="H27">
+        <v>-1</v>
+      </c>
+      <c r="I27">
+        <v>-1</v>
+      </c>
+      <c r="J27">
+        <v>-1</v>
+      </c>
+      <c r="K27">
+        <v>-1</v>
+      </c>
+      <c r="L27">
+        <v>-1</v>
+      </c>
+      <c r="M27">
+        <v>-1</v>
+      </c>
+      <c r="N27">
+        <v>-1</v>
+      </c>
+      <c r="O27">
+        <v>-1</v>
+      </c>
+      <c r="P27">
+        <v>-1</v>
+      </c>
+      <c r="Q27">
+        <v>2118</v>
+      </c>
+      <c r="R27">
+        <v>2858</v>
+      </c>
+      <c r="S27">
+        <v>2052</v>
+      </c>
+      <c r="T27">
+        <v>3140</v>
+      </c>
+      <c r="U27">
+        <v>4151</v>
+      </c>
+      <c r="V27">
+        <v>3957</v>
+      </c>
+      <c r="W27">
+        <v>4459</v>
+      </c>
+      <c r="X27">
+        <v>4805</v>
+      </c>
+      <c r="Y27">
+        <v>4369</v>
+      </c>
+      <c r="Z27">
+        <v>8056</v>
+      </c>
+      <c r="AA27">
+        <v>7012</v>
+      </c>
+      <c r="AB27">
+        <v>9604</v>
+      </c>
+      <c r="AC27">
+        <v>6188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>18207</v>
+      </c>
+      <c r="D28">
+        <v>23728</v>
+      </c>
+      <c r="E28">
+        <v>12027</v>
+      </c>
+      <c r="F28">
+        <v>5819</v>
+      </c>
+      <c r="G28">
+        <v>6174</v>
+      </c>
+      <c r="H28">
+        <v>6771</v>
+      </c>
+      <c r="I28">
+        <v>5758</v>
+      </c>
+      <c r="J28">
+        <v>4387</v>
+      </c>
+      <c r="K28">
+        <v>4093</v>
+      </c>
+      <c r="L28">
+        <v>3977</v>
+      </c>
+      <c r="M28">
+        <v>4644</v>
+      </c>
+      <c r="N28">
+        <v>4564</v>
+      </c>
+      <c r="O28">
+        <v>4709</v>
+      </c>
+      <c r="P28">
+        <v>5075</v>
+      </c>
+      <c r="Q28">
+        <v>5463</v>
+      </c>
+      <c r="R28">
+        <v>5287</v>
+      </c>
+      <c r="S28">
+        <v>5226</v>
+      </c>
+      <c r="T28">
+        <v>5551</v>
+      </c>
+      <c r="U28">
+        <v>5111</v>
+      </c>
+      <c r="V28">
+        <v>4969</v>
+      </c>
+      <c r="W28">
+        <v>4878</v>
+      </c>
+      <c r="X28">
+        <v>5570</v>
+      </c>
+      <c r="Y28">
+        <v>6031</v>
+      </c>
+      <c r="Z28">
+        <v>5705</v>
+      </c>
+      <c r="AA28">
+        <v>5694</v>
+      </c>
+      <c r="AB28">
+        <v>5503</v>
+      </c>
+      <c r="AC28">
+        <v>6370</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>12306</v>
+      </c>
+      <c r="D29">
+        <v>16906</v>
+      </c>
+      <c r="E29">
+        <v>12774</v>
+      </c>
+      <c r="F29">
+        <v>14125</v>
+      </c>
+      <c r="G29">
+        <v>13272</v>
+      </c>
+      <c r="H29">
+        <v>12314</v>
+      </c>
+      <c r="I29">
+        <v>12612</v>
+      </c>
+      <c r="J29">
+        <v>12657</v>
+      </c>
+      <c r="K29">
+        <v>12490</v>
+      </c>
+      <c r="L29">
+        <v>12229</v>
+      </c>
+      <c r="M29">
+        <v>12962</v>
+      </c>
+      <c r="N29">
+        <v>13453</v>
+      </c>
+      <c r="O29">
+        <v>15045</v>
+      </c>
+      <c r="P29">
+        <v>15406</v>
+      </c>
+      <c r="Q29">
+        <v>15647</v>
+      </c>
+      <c r="R29">
+        <v>15178</v>
+      </c>
+      <c r="S29">
+        <v>15611</v>
+      </c>
+      <c r="T29">
+        <v>15011</v>
+      </c>
+      <c r="U29">
+        <v>14729</v>
+      </c>
+      <c r="V29">
+        <v>15495</v>
+      </c>
+      <c r="W29">
+        <v>14942</v>
+      </c>
+      <c r="X29">
+        <v>14593</v>
+      </c>
+      <c r="Y29">
+        <v>14827</v>
+      </c>
+      <c r="Z29">
+        <v>15654</v>
+      </c>
+      <c r="AA29">
+        <v>16565</v>
+      </c>
+      <c r="AB29">
+        <v>16764</v>
+      </c>
+      <c r="AC29">
+        <v>17800</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>2964</v>
+      </c>
+      <c r="D30">
+        <v>2456</v>
+      </c>
+      <c r="E30">
+        <v>2941</v>
+      </c>
+      <c r="F30">
+        <v>2760</v>
+      </c>
+      <c r="G30">
+        <v>2933</v>
+      </c>
+      <c r="H30">
+        <v>2954</v>
+      </c>
+      <c r="I30">
+        <v>2791</v>
+      </c>
+      <c r="J30">
+        <v>2888</v>
+      </c>
+      <c r="K30">
+        <v>2558</v>
+      </c>
+      <c r="L30">
+        <v>2588</v>
+      </c>
+      <c r="M30">
+        <v>3082</v>
+      </c>
+      <c r="N30">
+        <v>3585</v>
+      </c>
+      <c r="O30">
+        <v>3691</v>
+      </c>
+      <c r="P30">
+        <v>3883</v>
+      </c>
+      <c r="Q30">
+        <v>4366</v>
+      </c>
+      <c r="R30">
+        <v>5263</v>
+      </c>
+      <c r="S30">
+        <v>5627</v>
+      </c>
+      <c r="T30">
+        <v>5701</v>
+      </c>
+      <c r="U30">
+        <v>5428</v>
+      </c>
+      <c r="V30">
+        <v>5079</v>
+      </c>
+      <c r="W30">
+        <v>5365</v>
+      </c>
+      <c r="X30">
+        <v>7022</v>
+      </c>
+      <c r="Y30">
+        <v>12623</v>
+      </c>
+      <c r="Z30">
+        <v>11814</v>
+      </c>
+      <c r="AA30">
+        <v>10958</v>
+      </c>
+      <c r="AB30">
+        <v>10045</v>
+      </c>
+      <c r="AC30">
+        <v>9080</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31">
+        <v>-1</v>
+      </c>
+      <c r="D31">
+        <v>-1</v>
+      </c>
+      <c r="E31">
+        <v>-1</v>
+      </c>
+      <c r="F31">
+        <v>-1</v>
+      </c>
+      <c r="G31">
+        <v>-1</v>
+      </c>
+      <c r="H31">
+        <v>-1</v>
+      </c>
+      <c r="I31">
+        <v>-1</v>
+      </c>
+      <c r="J31">
+        <v>6541</v>
+      </c>
+      <c r="K31">
+        <v>7713</v>
+      </c>
+      <c r="L31">
+        <v>7974</v>
+      </c>
+      <c r="M31">
+        <v>10921</v>
+      </c>
+      <c r="N31">
+        <v>10483</v>
+      </c>
+      <c r="O31">
+        <v>9406</v>
+      </c>
+      <c r="P31">
+        <v>9940</v>
+      </c>
+      <c r="Q31">
+        <v>11056</v>
+      </c>
+      <c r="R31">
+        <v>10086</v>
+      </c>
+      <c r="S31">
+        <v>10013</v>
+      </c>
+      <c r="T31">
+        <v>10640</v>
+      </c>
+      <c r="U31">
+        <v>12963</v>
+      </c>
+      <c r="V31">
+        <v>15262</v>
+      </c>
+      <c r="W31">
+        <v>19141</v>
+      </c>
+      <c r="X31">
+        <v>20793</v>
+      </c>
+      <c r="Y31">
+        <v>20486</v>
+      </c>
+      <c r="Z31">
+        <v>25094</v>
+      </c>
+      <c r="AA31">
+        <v>23681</v>
+      </c>
+      <c r="AB31">
+        <v>-1</v>
+      </c>
+      <c r="AC31">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32">
+        <v>2404</v>
+      </c>
+      <c r="D32">
+        <v>2252</v>
+      </c>
+      <c r="E32">
+        <v>2212</v>
+      </c>
+      <c r="F32">
+        <v>1914</v>
+      </c>
+      <c r="G32">
+        <v>1964</v>
+      </c>
+      <c r="H32">
+        <v>1475</v>
+      </c>
+      <c r="I32">
+        <v>1342</v>
+      </c>
+      <c r="J32">
+        <v>1722</v>
+      </c>
+      <c r="K32">
+        <v>1654</v>
+      </c>
+      <c r="L32">
+        <v>1793</v>
+      </c>
+      <c r="M32">
+        <v>2133</v>
+      </c>
+      <c r="N32">
+        <v>2267</v>
+      </c>
+      <c r="O32">
+        <v>2871</v>
+      </c>
+      <c r="P32">
+        <v>2963</v>
+      </c>
+      <c r="Q32">
+        <v>2416</v>
+      </c>
+      <c r="R32">
+        <v>2484</v>
+      </c>
+      <c r="S32">
+        <v>2324</v>
+      </c>
+      <c r="T32">
+        <v>2778</v>
+      </c>
+      <c r="U32">
+        <v>2670</v>
+      </c>
+      <c r="V32">
+        <v>3055</v>
+      </c>
+      <c r="W32">
+        <v>3032</v>
+      </c>
+      <c r="X32">
+        <v>2749</v>
+      </c>
+      <c r="Y32">
+        <v>2519</v>
+      </c>
+      <c r="Z32">
+        <v>2317</v>
+      </c>
+      <c r="AA32">
+        <v>2230</v>
+      </c>
+      <c r="AB32">
+        <v>-1</v>
+      </c>
+      <c r="AC32">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33">
+        <v>27720</v>
+      </c>
+      <c r="D33">
+        <v>26435</v>
+      </c>
+      <c r="E33">
+        <v>24846</v>
+      </c>
+      <c r="F33">
+        <v>26332</v>
+      </c>
+      <c r="G33">
+        <v>22728</v>
+      </c>
+      <c r="H33">
+        <v>20035</v>
+      </c>
+      <c r="I33">
+        <v>20002</v>
+      </c>
+      <c r="J33">
+        <v>27164</v>
+      </c>
+      <c r="K33">
+        <v>31375</v>
+      </c>
+      <c r="L33">
+        <v>27929</v>
+      </c>
+      <c r="M33">
+        <v>30782</v>
+      </c>
+      <c r="N33">
+        <v>32784</v>
+      </c>
+      <c r="O33">
+        <v>28781</v>
+      </c>
+      <c r="P33">
+        <v>28993</v>
+      </c>
+      <c r="Q33">
+        <v>32232</v>
+      </c>
+      <c r="R33">
+        <v>38838</v>
+      </c>
+      <c r="S33">
+        <v>44243</v>
+      </c>
+      <c r="T33">
+        <v>50962</v>
+      </c>
+      <c r="U33">
+        <v>50018</v>
+      </c>
+      <c r="V33">
+        <v>51398</v>
+      </c>
+      <c r="W33">
+        <v>53494</v>
+      </c>
+      <c r="X33">
+        <v>54222</v>
+      </c>
+      <c r="Y33">
+        <v>61352</v>
+      </c>
+      <c r="Z33">
+        <v>70313</v>
+      </c>
+      <c r="AA33">
+        <v>82527</v>
+      </c>
+      <c r="AB33">
+        <v>87186</v>
+      </c>
+      <c r="AC33">
+        <v>61358</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34">
+        <v>1911</v>
+      </c>
+      <c r="D34">
+        <v>2073</v>
+      </c>
+      <c r="E34">
+        <v>-1</v>
+      </c>
+      <c r="F34">
+        <v>-1</v>
+      </c>
+      <c r="G34">
+        <v>-1</v>
+      </c>
+      <c r="H34">
+        <v>-1</v>
+      </c>
+      <c r="I34">
+        <v>-1</v>
+      </c>
+      <c r="J34">
+        <v>-1</v>
+      </c>
+      <c r="K34">
+        <v>-1</v>
+      </c>
+      <c r="L34">
+        <v>-1</v>
+      </c>
+      <c r="M34">
+        <v>-1</v>
+      </c>
+      <c r="N34">
+        <v>-1</v>
+      </c>
+      <c r="O34">
+        <v>1382</v>
+      </c>
+      <c r="P34">
+        <v>1393</v>
+      </c>
+      <c r="Q34">
+        <v>1284</v>
+      </c>
+      <c r="R34">
+        <v>1356</v>
+      </c>
+      <c r="S34">
+        <v>1456</v>
+      </c>
+      <c r="T34">
+        <v>1876</v>
+      </c>
+      <c r="U34">
+        <v>2419</v>
+      </c>
+      <c r="V34">
+        <v>2138</v>
+      </c>
+      <c r="W34">
+        <v>2110</v>
+      </c>
+      <c r="X34">
+        <v>-1</v>
+      </c>
+      <c r="Y34">
+        <v>-1</v>
+      </c>
+      <c r="Z34">
+        <v>-1</v>
+      </c>
+      <c r="AA34">
+        <v>-1</v>
+      </c>
+      <c r="AB34">
+        <v>-1</v>
+      </c>
+      <c r="AC34">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35">
+        <v>11409</v>
+      </c>
+      <c r="D35">
+        <v>12000</v>
+      </c>
+      <c r="E35">
+        <v>13267</v>
+      </c>
+      <c r="F35">
+        <v>12971</v>
+      </c>
+      <c r="G35">
+        <v>13326</v>
+      </c>
+      <c r="H35">
+        <v>14919</v>
+      </c>
+      <c r="I35">
+        <v>15544</v>
+      </c>
+      <c r="J35">
+        <v>16287</v>
+      </c>
+      <c r="K35">
+        <v>17983</v>
+      </c>
+      <c r="L35">
+        <v>17404</v>
+      </c>
+      <c r="M35">
+        <v>15955</v>
+      </c>
+      <c r="N35">
+        <v>16955</v>
+      </c>
+      <c r="O35">
+        <v>16976</v>
+      </c>
+      <c r="P35">
+        <v>15321</v>
+      </c>
+      <c r="Q35">
+        <v>13982</v>
+      </c>
+      <c r="R35">
+        <v>13237</v>
+      </c>
+      <c r="S35">
+        <v>14203</v>
+      </c>
+      <c r="T35">
+        <v>13656</v>
+      </c>
+      <c r="U35">
+        <v>13809</v>
+      </c>
+      <c r="V35">
+        <v>14777</v>
+      </c>
+      <c r="W35">
+        <v>4478</v>
+      </c>
+      <c r="X35">
+        <v>14619</v>
+      </c>
+      <c r="Y35">
+        <v>14939</v>
+      </c>
+      <c r="Z35">
+        <v>15310</v>
+      </c>
+      <c r="AA35">
+        <v>5397</v>
+      </c>
+      <c r="AB35">
+        <v>15881</v>
+      </c>
+      <c r="AC35">
+        <v>14974</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36">
+        <v>-1</v>
+      </c>
+      <c r="D36">
+        <v>-1</v>
+      </c>
+      <c r="E36">
+        <v>-1</v>
+      </c>
+      <c r="F36">
+        <v>-1</v>
+      </c>
+      <c r="G36">
+        <v>-1</v>
+      </c>
+      <c r="H36">
+        <v>-1</v>
+      </c>
+      <c r="I36">
+        <v>108</v>
+      </c>
+      <c r="J36">
+        <v>67.5</v>
+      </c>
+      <c r="K36">
+        <v>65.2</v>
+      </c>
+      <c r="L36">
+        <v>50.2</v>
+      </c>
+      <c r="M36">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="N36">
+        <v>43.4</v>
+      </c>
+      <c r="O36">
+        <v>62.1</v>
+      </c>
+      <c r="P36">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="Q36">
+        <v>106</v>
+      </c>
+      <c r="R36">
+        <v>280</v>
+      </c>
+      <c r="S36">
+        <v>476</v>
+      </c>
+      <c r="T36">
+        <v>943</v>
+      </c>
+      <c r="U36">
+        <v>895</v>
+      </c>
+      <c r="V36">
+        <v>546</v>
+      </c>
+      <c r="W36">
+        <v>409</v>
+      </c>
+      <c r="X36">
+        <v>368</v>
+      </c>
+      <c r="Y36">
+        <v>382</v>
+      </c>
+      <c r="Z36">
+        <v>347</v>
+      </c>
+      <c r="AA36">
+        <v>336</v>
+      </c>
+      <c r="AB36">
+        <v>333</v>
+      </c>
+      <c r="AC36">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37">
+        <v>196111</v>
+      </c>
+      <c r="D37">
+        <v>-1</v>
+      </c>
+      <c r="E37">
+        <v>41938</v>
+      </c>
+      <c r="F37">
+        <v>36661</v>
+      </c>
+      <c r="G37">
+        <v>34657</v>
+      </c>
+      <c r="H37">
+        <v>22803</v>
+      </c>
+      <c r="I37">
+        <v>21533</v>
+      </c>
+      <c r="J37">
+        <v>23540</v>
+      </c>
+      <c r="K37">
+        <v>14000</v>
+      </c>
+      <c r="L37">
+        <v>15548</v>
+      </c>
+      <c r="M37">
+        <v>20982</v>
+      </c>
+      <c r="N37">
+        <v>22679</v>
+      </c>
+      <c r="O37">
+        <v>25123</v>
+      </c>
+      <c r="P37">
+        <v>26338</v>
+      </c>
+      <c r="Q37">
+        <v>27536</v>
+      </c>
+      <c r="R37">
+        <v>31293</v>
+      </c>
+      <c r="S37">
+        <v>34633</v>
+      </c>
+      <c r="T37">
+        <v>37698</v>
+      </c>
+      <c r="U37">
+        <v>41423</v>
+      </c>
+      <c r="V37">
+        <v>43458</v>
+      </c>
+      <c r="W37">
+        <v>44338</v>
+      </c>
+      <c r="X37">
+        <v>47321</v>
+      </c>
+      <c r="Y37">
+        <v>54832</v>
+      </c>
+      <c r="Z37">
+        <v>57500</v>
+      </c>
+      <c r="AA37">
+        <v>61622</v>
+      </c>
+      <c r="AB37">
+        <v>66419</v>
+      </c>
+      <c r="AC37">
+        <v>70345</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38">
+        <v>58149</v>
+      </c>
+      <c r="D38">
+        <v>58527</v>
+      </c>
+      <c r="E38">
+        <v>56686</v>
+      </c>
+      <c r="F38">
+        <v>56058</v>
+      </c>
+      <c r="G38">
+        <v>56346</v>
+      </c>
+      <c r="H38">
+        <v>53557</v>
+      </c>
+      <c r="I38">
+        <v>52272</v>
+      </c>
+      <c r="J38">
+        <v>52451</v>
+      </c>
+      <c r="K38">
+        <v>51085</v>
+      </c>
+      <c r="L38">
+        <v>51517</v>
+      </c>
+      <c r="M38">
+        <v>50923</v>
+      </c>
+      <c r="N38">
+        <v>50768</v>
+      </c>
+      <c r="O38">
+        <v>51815</v>
+      </c>
+      <c r="P38">
+        <v>53372</v>
+      </c>
+      <c r="Q38">
+        <v>54833</v>
+      </c>
+      <c r="R38">
+        <v>53714</v>
+      </c>
+      <c r="S38">
+        <v>53957</v>
+      </c>
+      <c r="T38">
+        <v>54164</v>
+      </c>
+      <c r="U38">
+        <v>53622</v>
+      </c>
+      <c r="V38">
+        <v>57240</v>
+      </c>
+      <c r="W38">
+        <v>54623</v>
+      </c>
+      <c r="X38">
+        <v>53288</v>
+      </c>
+      <c r="Y38">
+        <v>52551</v>
+      </c>
+      <c r="Z38">
+        <v>52419</v>
+      </c>
+      <c r="AA38">
+        <v>53195</v>
+      </c>
+      <c r="AB38">
+        <v>55342</v>
+      </c>
+      <c r="AC38">
+        <v>55681</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>61199</v>
+      </c>
+      <c r="D39">
+        <v>56636</v>
+      </c>
+      <c r="E39">
+        <v>53864</v>
+      </c>
+      <c r="F39">
+        <v>48423</v>
+      </c>
+      <c r="G39">
+        <v>45159</v>
+      </c>
+      <c r="H39">
+        <v>44416</v>
+      </c>
+      <c r="I39">
+        <v>43549</v>
+      </c>
+      <c r="J39">
+        <v>41966</v>
+      </c>
+      <c r="K39">
+        <v>42101</v>
+      </c>
+      <c r="L39">
+        <v>42959</v>
+      </c>
+      <c r="M39">
+        <v>42268</v>
+      </c>
+      <c r="N39">
+        <v>41573</v>
+      </c>
+      <c r="O39">
+        <v>41686</v>
+      </c>
+      <c r="P39">
+        <v>41117</v>
+      </c>
+      <c r="Q39">
+        <v>39857</v>
+      </c>
+      <c r="R39">
+        <v>39237</v>
+      </c>
+      <c r="S39">
+        <v>38331</v>
+      </c>
+      <c r="T39">
+        <v>38364</v>
+      </c>
+      <c r="U39">
+        <v>39467</v>
+      </c>
+      <c r="V39">
+        <v>40958</v>
+      </c>
+      <c r="W39">
+        <v>41405</v>
+      </c>
+      <c r="X39">
+        <v>40221</v>
+      </c>
+      <c r="Y39">
+        <v>41180</v>
+      </c>
+      <c r="Z39">
+        <v>38803</v>
+      </c>
+      <c r="AA39">
+        <v>38628</v>
+      </c>
+      <c r="AB39">
+        <v>39813</v>
+      </c>
+      <c r="AC39">
+        <v>40985</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <v>5574</v>
+      </c>
+      <c r="D40">
+        <v>5287</v>
+      </c>
+      <c r="E40">
+        <v>5494</v>
+      </c>
+      <c r="F40">
+        <v>5363</v>
+      </c>
+      <c r="G40">
+        <v>5455</v>
+      </c>
+      <c r="H40">
+        <v>5572</v>
+      </c>
+      <c r="I40">
+        <v>5906</v>
+      </c>
+      <c r="J40">
+        <v>6293</v>
+      </c>
+      <c r="K40">
+        <v>6857</v>
+      </c>
+      <c r="L40">
+        <v>7179</v>
+      </c>
+      <c r="M40">
+        <v>7576</v>
+      </c>
+      <c r="N40">
+        <v>7409</v>
+      </c>
+      <c r="O40">
+        <v>7268</v>
+      </c>
+      <c r="P40">
+        <v>6227</v>
+      </c>
+      <c r="Q40">
+        <v>6846</v>
+      </c>
+      <c r="R40">
+        <v>7403</v>
+      </c>
+      <c r="S40">
+        <v>7697</v>
+      </c>
+      <c r="T40">
+        <v>7691</v>
+      </c>
+      <c r="U40">
+        <v>8550</v>
+      </c>
+      <c r="V40">
+        <v>8964</v>
+      </c>
+      <c r="W40">
+        <v>6889</v>
+      </c>
+      <c r="X40">
+        <v>5546</v>
+      </c>
+      <c r="Y40">
+        <v>4905</v>
+      </c>
+      <c r="Z40">
+        <v>4581</v>
+      </c>
+      <c r="AA40">
+        <v>4543</v>
+      </c>
+      <c r="AB40">
+        <v>4948</v>
+      </c>
+      <c r="AC40">
+        <v>4986</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>-1</v>
+      </c>
+      <c r="D41">
+        <v>-1</v>
+      </c>
+      <c r="E41">
+        <v>-1</v>
+      </c>
+      <c r="F41">
+        <v>281</v>
+      </c>
+      <c r="G41">
+        <v>1239</v>
+      </c>
+      <c r="H41">
+        <v>1331</v>
+      </c>
+      <c r="I41">
+        <v>1283</v>
+      </c>
+      <c r="J41">
+        <v>1590</v>
+      </c>
+      <c r="K41">
+        <v>1285</v>
+      </c>
+      <c r="L41">
+        <v>1184</v>
+      </c>
+      <c r="M41">
+        <v>1468</v>
+      </c>
+      <c r="N41">
+        <v>1240</v>
+      </c>
+      <c r="O41">
+        <v>1318</v>
+      </c>
+      <c r="P41">
+        <v>1523</v>
+      </c>
+      <c r="Q41">
+        <v>1644</v>
+      </c>
+      <c r="R41">
+        <v>1991</v>
+      </c>
+      <c r="S41">
+        <v>2234</v>
+      </c>
+      <c r="T41">
+        <v>2715</v>
+      </c>
+      <c r="U41">
+        <v>2656</v>
+      </c>
+      <c r="V41">
+        <v>2433</v>
+      </c>
+      <c r="W41">
+        <v>2447</v>
+      </c>
+      <c r="X41">
+        <v>2249</v>
+      </c>
+      <c r="Y41">
+        <v>2518</v>
+      </c>
+      <c r="Z41">
+        <v>2678</v>
+      </c>
+      <c r="AA41">
+        <v>3264</v>
+      </c>
+      <c r="AB41">
+        <v>3617</v>
+      </c>
+      <c r="AC41">
+        <v>3479</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42">
+        <v>30768</v>
+      </c>
+      <c r="D42">
+        <v>31202</v>
+      </c>
+      <c r="E42">
+        <v>30305</v>
+      </c>
+      <c r="F42">
+        <v>30467</v>
+      </c>
+      <c r="G42">
+        <v>29714</v>
+      </c>
+      <c r="H42">
+        <v>27137</v>
+      </c>
+      <c r="I42">
+        <v>29911</v>
+      </c>
+      <c r="J42">
+        <v>31364</v>
+      </c>
+      <c r="K42">
+        <v>32399</v>
+      </c>
+      <c r="L42">
+        <v>33669</v>
+      </c>
+      <c r="M42">
+        <v>35921</v>
+      </c>
+      <c r="N42">
+        <v>35330</v>
+      </c>
+      <c r="O42">
+        <v>36297</v>
+      </c>
+      <c r="P42">
+        <v>36591</v>
+      </c>
+      <c r="Q42">
+        <v>36708</v>
+      </c>
+      <c r="R42">
+        <v>35311</v>
+      </c>
+      <c r="S42">
+        <v>34174</v>
+      </c>
+      <c r="T42">
+        <v>33114</v>
+      </c>
+      <c r="U42">
+        <v>34326</v>
+      </c>
+      <c r="V42">
+        <v>33363</v>
+      </c>
+      <c r="W42">
+        <v>32422</v>
+      </c>
+      <c r="X42">
+        <v>31815</v>
+      </c>
+      <c r="Y42">
+        <v>29554</v>
+      </c>
+      <c r="Z42">
+        <v>28388</v>
+      </c>
+      <c r="AA42">
+        <v>26402</v>
+      </c>
+      <c r="AB42">
+        <v>25295</v>
+      </c>
+      <c r="AC42">
+        <v>27966</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43">
+        <v>60028</v>
+      </c>
+      <c r="D43">
+        <v>60721</v>
+      </c>
+      <c r="E43">
+        <v>56716</v>
+      </c>
+      <c r="F43">
+        <v>54125</v>
+      </c>
+      <c r="G43">
+        <v>52636</v>
+      </c>
+      <c r="H43">
+        <v>49369</v>
+      </c>
+      <c r="I43">
+        <v>49074</v>
+      </c>
+      <c r="J43">
+        <v>47528</v>
+      </c>
+      <c r="K43">
+        <v>47792</v>
+      </c>
+      <c r="L43">
+        <v>47733</v>
+      </c>
+      <c r="M43">
+        <v>48981</v>
+      </c>
+      <c r="N43">
+        <v>50964</v>
+      </c>
+      <c r="O43">
+        <v>54265</v>
+      </c>
+      <c r="P43">
+        <v>58167</v>
+      </c>
+      <c r="Q43">
+        <v>58846</v>
+      </c>
+      <c r="R43">
+        <v>59337</v>
+      </c>
+      <c r="S43">
+        <v>59720</v>
+      </c>
+      <c r="T43">
+        <v>61610</v>
+      </c>
+      <c r="U43">
+        <v>64360</v>
+      </c>
+      <c r="V43">
+        <v>65610</v>
+      </c>
+      <c r="W43">
+        <v>64230</v>
+      </c>
+      <c r="X43">
+        <v>61518</v>
+      </c>
+      <c r="Y43">
+        <v>58896</v>
+      </c>
+      <c r="Z43">
+        <v>56408</v>
+      </c>
+      <c r="AA43">
+        <v>54938</v>
+      </c>
+      <c r="AB43">
+        <v>53862</v>
+      </c>
+      <c r="AC43">
+        <v>54217</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44">
+        <v>16318</v>
+      </c>
+      <c r="D44">
+        <v>15683</v>
+      </c>
+      <c r="E44">
+        <v>15299</v>
+      </c>
+      <c r="F44">
+        <v>14907</v>
+      </c>
+      <c r="G44">
+        <v>15061</v>
+      </c>
+      <c r="H44">
+        <v>15180</v>
+      </c>
+      <c r="I44">
+        <v>14701</v>
+      </c>
+      <c r="J44">
+        <v>14558</v>
+      </c>
+      <c r="K44">
+        <v>15278</v>
+      </c>
+      <c r="L44">
+        <v>16789</v>
+      </c>
+      <c r="M44">
+        <v>17352</v>
+      </c>
+      <c r="N44">
+        <v>17159</v>
+      </c>
+      <c r="O44">
+        <v>15905</v>
+      </c>
+      <c r="P44">
+        <v>16142</v>
+      </c>
+      <c r="Q44">
+        <v>16873</v>
+      </c>
+      <c r="R44">
+        <v>17083</v>
+      </c>
+      <c r="S44">
+        <v>17642</v>
+      </c>
+      <c r="T44">
+        <v>18298</v>
+      </c>
+      <c r="U44">
+        <v>18197</v>
+      </c>
+      <c r="V44">
+        <v>17469</v>
+      </c>
+      <c r="W44">
+        <v>17582</v>
+      </c>
+      <c r="X44">
+        <v>16220</v>
+      </c>
+      <c r="Y44">
+        <v>16404</v>
+      </c>
+      <c r="Z44">
+        <v>14311</v>
+      </c>
+      <c r="AA44">
+        <v>14289</v>
+      </c>
+      <c r="AB44">
+        <v>14937</v>
+      </c>
+      <c r="AC44">
+        <v>14994</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45">
+        <v>11526</v>
+      </c>
+      <c r="D45">
+        <v>11205</v>
+      </c>
+      <c r="E45">
+        <v>11141</v>
+      </c>
+      <c r="F45">
+        <v>10238</v>
+      </c>
+      <c r="G45">
+        <v>9873</v>
+      </c>
+      <c r="H45">
+        <v>9593</v>
+      </c>
+      <c r="I45">
+        <v>9648</v>
+      </c>
+      <c r="J45">
+        <v>9547</v>
+      </c>
+      <c r="K45">
+        <v>9512</v>
+      </c>
+      <c r="L45">
+        <v>9976</v>
+      </c>
+      <c r="M45">
+        <v>9583</v>
+      </c>
+      <c r="N45">
+        <v>9834</v>
+      </c>
+      <c r="O45">
+        <v>9824</v>
+      </c>
+      <c r="P45">
+        <v>9964</v>
+      </c>
+      <c r="Q45">
+        <v>10039</v>
+      </c>
+      <c r="R45">
+        <v>10058</v>
+      </c>
+      <c r="S45">
+        <v>10526</v>
+      </c>
+      <c r="T45">
+        <v>10667</v>
+      </c>
+      <c r="U45">
+        <v>10483</v>
+      </c>
+      <c r="V45">
+        <v>10709</v>
+      </c>
+      <c r="W45">
+        <v>10258</v>
+      </c>
+      <c r="X45">
+        <v>9914</v>
+      </c>
+      <c r="Y45">
+        <v>9316</v>
+      </c>
+      <c r="Z45">
+        <v>8677</v>
+      </c>
+      <c r="AA45">
+        <v>8691</v>
+      </c>
+      <c r="AB45">
+        <v>8668</v>
+      </c>
+      <c r="AC45">
+        <v>9249</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46">
+        <v>4402</v>
+      </c>
+      <c r="D46">
+        <v>4268</v>
+      </c>
+      <c r="E46">
+        <v>4626</v>
+      </c>
+      <c r="F46">
+        <v>4311</v>
+      </c>
+      <c r="G46">
+        <v>4532</v>
+      </c>
+      <c r="H46">
+        <v>4093</v>
+      </c>
+      <c r="I46">
+        <v>4149</v>
+      </c>
+      <c r="J46">
+        <v>4080</v>
+      </c>
+      <c r="K46">
+        <v>4350</v>
+      </c>
+      <c r="L46">
+        <v>4373</v>
+      </c>
+      <c r="M46">
+        <v>4228</v>
+      </c>
+      <c r="N46">
+        <v>4255</v>
+      </c>
+      <c r="O46">
+        <v>5114</v>
+      </c>
+      <c r="P46">
+        <v>4917</v>
+      </c>
+      <c r="Q46">
+        <v>5041</v>
+      </c>
+      <c r="R46">
+        <v>4743</v>
+      </c>
+      <c r="S46">
+        <v>4734</v>
+      </c>
+      <c r="T46">
+        <v>5036</v>
+      </c>
+      <c r="U46">
+        <v>5063</v>
+      </c>
+      <c r="V46">
+        <v>5373</v>
+      </c>
+      <c r="W46">
+        <v>5291</v>
+      </c>
+      <c r="X46">
+        <v>5389</v>
+      </c>
+      <c r="Y46">
+        <v>5487</v>
+      </c>
+      <c r="Z46">
+        <v>5614</v>
+      </c>
+      <c r="AA46">
+        <v>5858</v>
+      </c>
+      <c r="AB46">
+        <v>5815</v>
+      </c>
+      <c r="AC46">
+        <v>6080</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47">
+        <v>6974</v>
+      </c>
+      <c r="D47">
+        <v>6876</v>
+      </c>
+      <c r="E47">
+        <v>5646</v>
+      </c>
+      <c r="F47">
+        <v>5361</v>
+      </c>
+      <c r="G47">
+        <v>5332</v>
+      </c>
+      <c r="H47">
+        <v>5223</v>
+      </c>
+      <c r="I47">
+        <v>5125</v>
+      </c>
+      <c r="J47">
+        <v>5060</v>
+      </c>
+      <c r="K47">
+        <v>5059</v>
+      </c>
+      <c r="L47">
+        <v>5125</v>
+      </c>
+      <c r="M47">
+        <v>5124</v>
+      </c>
+      <c r="N47">
+        <v>4899</v>
+      </c>
+      <c r="O47">
+        <v>4750</v>
+      </c>
+      <c r="P47">
+        <v>4802</v>
+      </c>
+      <c r="Q47">
+        <v>4702</v>
+      </c>
+      <c r="R47">
+        <v>4531</v>
+      </c>
+      <c r="S47">
+        <v>4495</v>
+      </c>
+      <c r="T47">
+        <v>4851</v>
+      </c>
+      <c r="U47">
+        <v>5288</v>
+      </c>
+      <c r="V47">
+        <v>4981</v>
+      </c>
+      <c r="W47">
+        <v>4771</v>
+      </c>
+      <c r="X47">
+        <v>4603</v>
+      </c>
+      <c r="Y47">
+        <v>4552</v>
+      </c>
+      <c r="Z47">
+        <v>4436</v>
+      </c>
+      <c r="AA47">
+        <v>4357</v>
+      </c>
+      <c r="AB47">
+        <v>4218</v>
+      </c>
+      <c r="AC47">
+        <v>4028</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48">
+        <v>3236</v>
+      </c>
+      <c r="D48">
+        <v>3336</v>
+      </c>
+      <c r="E48">
+        <v>3426</v>
+      </c>
+      <c r="F48">
+        <v>3316</v>
+      </c>
+      <c r="G48">
+        <v>3226</v>
+      </c>
+      <c r="H48">
+        <v>3465</v>
+      </c>
+      <c r="I48">
+        <v>3341</v>
+      </c>
+      <c r="J48">
+        <v>3413</v>
+      </c>
+      <c r="K48">
+        <v>3338</v>
+      </c>
+      <c r="L48">
+        <v>3513</v>
+      </c>
+      <c r="M48">
+        <v>3618</v>
+      </c>
+      <c r="N48">
+        <v>3763</v>
+      </c>
+      <c r="O48">
+        <v>3868</v>
+      </c>
+      <c r="P48">
+        <v>3732</v>
+      </c>
+      <c r="Q48">
+        <v>3964</v>
+      </c>
+      <c r="R48">
+        <v>4201</v>
+      </c>
+      <c r="S48">
+        <v>4081</v>
+      </c>
+      <c r="T48">
+        <v>3907</v>
+      </c>
+      <c r="U48">
+        <v>3921</v>
+      </c>
+      <c r="V48">
+        <v>4289</v>
+      </c>
+      <c r="W48">
+        <v>4230</v>
+      </c>
+      <c r="X48">
+        <v>4041</v>
+      </c>
+      <c r="Y48">
+        <v>3588</v>
+      </c>
+      <c r="Z48">
+        <v>3954</v>
+      </c>
+      <c r="AA48">
+        <v>3557</v>
+      </c>
+      <c r="AB48">
+        <v>3750</v>
+      </c>
+      <c r="AC48">
+        <v>3764</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49">
+        <v>3739</v>
+      </c>
+      <c r="D49">
+        <v>3878</v>
+      </c>
+      <c r="E49">
+        <v>3034</v>
+      </c>
+      <c r="F49">
+        <v>18832</v>
+      </c>
+      <c r="G49">
+        <v>2184</v>
+      </c>
+      <c r="H49">
+        <v>2130</v>
+      </c>
+      <c r="I49">
+        <v>2070</v>
+      </c>
+      <c r="J49">
+        <v>2320</v>
+      </c>
+      <c r="K49">
+        <v>2108</v>
+      </c>
+      <c r="L49">
+        <v>1902</v>
+      </c>
+      <c r="M49">
+        <v>1810</v>
+      </c>
+      <c r="N49">
+        <v>1899</v>
+      </c>
+      <c r="O49">
+        <v>1889</v>
+      </c>
+      <c r="P49">
+        <v>1948</v>
+      </c>
+      <c r="Q49">
+        <v>2095</v>
+      </c>
+      <c r="R49">
+        <v>2216</v>
+      </c>
+      <c r="S49">
+        <v>2284</v>
+      </c>
+      <c r="T49">
+        <v>2190</v>
+      </c>
+      <c r="U49">
+        <v>2414</v>
+      </c>
+      <c r="V49">
+        <v>2052</v>
+      </c>
+      <c r="W49">
+        <v>1890</v>
+      </c>
+      <c r="X49">
+        <v>1955</v>
+      </c>
+      <c r="Y49">
+        <v>1902</v>
+      </c>
+      <c r="Z49">
+        <v>2047</v>
+      </c>
+      <c r="AA49">
+        <v>2237</v>
+      </c>
+      <c r="AB49">
+        <v>2581</v>
+      </c>
+      <c r="AC49">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50">
+        <v>232</v>
+      </c>
+      <c r="D50">
+        <v>164</v>
+      </c>
+      <c r="E50">
+        <v>126</v>
+      </c>
+      <c r="F50">
+        <v>115</v>
+      </c>
+      <c r="G50">
+        <v>110</v>
+      </c>
+      <c r="H50">
+        <v>102</v>
+      </c>
+      <c r="I50">
+        <v>92</v>
+      </c>
+      <c r="J50">
+        <v>64.2</v>
+      </c>
+      <c r="K50">
+        <v>60.7</v>
+      </c>
+      <c r="L50">
+        <v>70.3</v>
+      </c>
+      <c r="M50">
+        <v>77.8</v>
+      </c>
+      <c r="N50">
+        <v>88</v>
+      </c>
+      <c r="O50">
+        <v>88</v>
+      </c>
+      <c r="P50">
+        <v>99</v>
+      </c>
+      <c r="Q50">
+        <v>108</v>
+      </c>
+      <c r="R50">
+        <v>112</v>
+      </c>
+      <c r="S50">
+        <v>138</v>
+      </c>
+      <c r="T50">
+        <v>171</v>
+      </c>
+      <c r="U50">
+        <v>201</v>
+      </c>
+      <c r="V50">
+        <v>171</v>
+      </c>
+      <c r="W50">
+        <v>170</v>
+      </c>
+      <c r="X50">
+        <v>166</v>
+      </c>
+      <c r="Y50">
+        <v>156</v>
+      </c>
+      <c r="Z50">
+        <v>152</v>
+      </c>
+      <c r="AA50">
+        <v>132</v>
+      </c>
+      <c r="AB50">
+        <v>142</v>
+      </c>
+      <c r="AC50">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
